--- a/Administrativas/CuentasCobro/Obligaciones-Evidencias.xlsx
+++ b/Administrativas/CuentasCobro/Obligaciones-Evidencias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Administrativas\Contratos2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Administrativas\CuentasCobro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903A6A2C-B2F2-446B-AC6F-A7258878C5BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F1CA53-B349-4093-81C7-98F870993F1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{71A919A6-7217-488A-A322-298DE6996350}"/>
   </bookViews>
@@ -326,40 +326,41 @@
     <t>PRESTAR SERVICIOS PROFESIONALES A LA SUBDIRECCiÓN DE OPERACiÓN DE LA ATENCIÓN A LA PRIMERA INFANCIA, PARA APOYAR EL DESARROLLO DE ESTRATEGIAS EN LOS COMPONENTES DE INFRAESTRUCTURA Y DOTACION, COMO MECANISMOS QUE POSIBILITEN EL ACCESO Y LA PERMANENCIA DE LAS NIÑAS Y LOS NIÑOS EN LAS DIFERENTES MODALIDADES DE ATENCION A LA PRIMERA INFANCIA.</t>
   </si>
   <si>
-    <t>Elaboración de orientaciones para la solicitud de recursos de dotación a la Dirección de Primera Infnacia durante la vigencia 2019</t>
-  </si>
-  <si>
     <t>3 al 30</t>
   </si>
   <si>
     <t>Consolidación de información de las regionales respecto al avance en ingreso de dotaciones al inventario ICBF</t>
   </si>
   <si>
-    <t>No se ha requerido en  las actividades de este mes.</t>
-  </si>
-  <si>
-    <t>Articulación con las regionales para determinar gestiones adelantadas en recursos de dotación.
-Articulación con DAPRE para la asignacion de recursos de dotación a infraestructuras de primera infnaci en el marco del convenio 007 de 2016.</t>
-  </si>
-  <si>
     <t>Formulación del Plan de Mejoramiento de la Contraloría General de la República- PMCGR 2019-2020, de auditoría de cumplimiento en la Regional La Guajira.</t>
-  </si>
-  <si>
-    <t>Desarrollo  de mesas de trabajo con el Profesional Cuéntame, equipo primario y asesora de la SOPAI , para definir arcquitectura y necesidaades de un sistema de información de dotaciones.
-Proyección y seguimiento al memorando S-2019-029577-0101 de subdirección general  en el que se solicita a las regionales informe de ingreso de dotaciones al inventario ICBF al cierre de la vigencia 2018.</t>
   </si>
   <si>
     <t>Asistencia Técnica a Regional Arauca para recepción de bienes de dotación adquiridos por la Alcaldía.
 Asistencia a Técnicaa Regional Cesar con orientaciones para solicitud de recursos de dotación en caso de siniestro-HCB Kokorikin afectado por incendio.</t>
-  </si>
-  <si>
-    <t>No se ha requerido por parte de la supervisi´pon</t>
   </si>
   <si>
     <t>Reunión para definir orientaciones de aprobaciones y traslados presupuestales 2019 (8 enero 2019) en temas de infraestructuras y dotaciones.
 Mesa de trabajo para definir arquitectura de módulo de dotaciones en sistema de información Cuéntame (4 enero 2019).
 Reunión con enlace de control interno revisión de hallazgos de dotaciones en auditoría de cumplimiento de la Regional La Guajira (16 enero 2019)
 Reunión con enlace de control interno para revisión PMCGR formulado para hallazgos de la Regional La Guajira (24 enero 2019)</t>
+  </si>
+  <si>
+    <t>Elaboración de orientaciones para la solicitud de recursos de dotación a la Dirección de Primera Infancia durante la vigencia 2019</t>
+  </si>
+  <si>
+    <t>Articulación con las regionales para determinar gestiones adelantadas en recursos de dotación.
+Articulación con DAPRE para la asignacion de recursos de dotación a infraestructuras de primera infnacia en el marco del convenio 007 de 2016.</t>
+  </si>
+  <si>
+    <t>Desarrollo  de mesas de trabajo con el Profesional Cuéntame, equipo primario y asesora de la SOPAI , para definir arquitectura y necesidades de un sistema de información para el control del inventario de dotaciones en unidades de servicio.
+Proyección y seguimiento al memorando S-2019-029577-0101 de subdirección general  en el que se solicita a las regionales informe de ingreso de dotaciones al inventario ICBF al cierre de la vigencia 2018.
+Programación y desarrollo de videoconferencias con las 33 regionales para la Socialización de alertas en el plan de trabajo para el ingreso de las dotaciones de Primera Infancia al inventario ICBF- PMCGR 2018-2019</t>
+  </si>
+  <si>
+    <t>Consolidado de gestión del Equipo de dotaciones de vigencia 2018 de acuerdo con el Plan Táctico Operativo para empalme 2019.</t>
+  </si>
+  <si>
+    <t>No se ha requerido por parte de la supervisión.</t>
   </si>
 </sst>
 </file>
@@ -760,7 +761,7 @@
   <dimension ref="B2:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5380165-149C-4EA6-A779-553C3BA93BBB}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +937,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>14</v>
@@ -946,7 +947,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -954,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -968,7 +969,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -982,7 +983,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -996,15 +997,15 @@
         <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1026,13 +1027,13 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1054,7 +1055,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>

--- a/Administrativas/CuentasCobro/Obligaciones-Evidencias.xlsx
+++ b/Administrativas/CuentasCobro/Obligaciones-Evidencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Administrativas\CuentasCobro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F1CA53-B349-4093-81C7-98F870993F1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F7F9ED-D51D-4429-8522-529A408F24DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{71A919A6-7217-488A-A322-298DE6996350}"/>
   </bookViews>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5380165-149C-4EA6-A779-553C3BA93BBB}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
